--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2803446.879413362</v>
+        <v>2974702.502977829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4368147.660050996</v>
+        <v>4589197.55143555</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>284.3353719371197</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>31.8455458389233</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>71.30005357987436</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>79.53077826896468</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>164.9246839936411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>174.9113998125073</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>111.5381283283296</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>242.1106960267873</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.3032798602292</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>283.8335849873746</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>88.99420921258121</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1348,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828923</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>379.4051019808024</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,10 +1584,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0564930766954</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>392.9021291601013</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>22.56919457453922</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>107.3792913045956</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.42339212608444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2084,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773014</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>99.68042330889634</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2536,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>50.29424103733289</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>110.9855059742079</v>
       </c>
     </row>
     <row r="26">
@@ -2713,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>56.95997704284446</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>113.7218216744503</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2950,16 +2952,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -3004,7 +3006,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>234.352425594886</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>23.92593778768322</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>54.82067209135266</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3320,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561527</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78.47678022721453</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>222.6988144892033</v>
       </c>
     </row>
     <row r="41">
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>208.1928846889746</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3986,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2371866135147</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>18.05677735225779</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>169.267152625425</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.854954171005</v>
+        <v>959.3315093046215</v>
       </c>
       <c r="C2" t="n">
-        <v>778.7528853948324</v>
+        <v>925.2294405284488</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>893.3600597432974</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1665.016212061303</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1405.79390937832</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1405.79390937832</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>1404.978858829757</v>
       </c>
       <c r="X2" t="n">
-        <v>839.3598402754513</v>
+        <v>1389.876799449472</v>
       </c>
       <c r="Y2" t="n">
-        <v>835.1141206155088</v>
+        <v>981.5906757491252</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4421,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.412936374258</v>
+        <v>672.6790347687931</v>
       </c>
       <c r="C4" t="n">
-        <v>365.412936374258</v>
+        <v>500.1173232520181</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5349435757807</v>
+        <v>500.1173232520181</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>500.1173232520181</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,7 +4497,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1595.431489322189</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1595.431489322189</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1316.998488575294</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1030.042980445724</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>1030.042980445724</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X4" t="n">
-        <v>784.6512257791369</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y4" t="n">
-        <v>557.2315550932451</v>
+        <v>864.4976534877803</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>687.7796263806116</v>
+        <v>1815.934626717172</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>1377.792153900596</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>1345.922773115444</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>674.533170634256</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2262.397026790871</v>
       </c>
       <c r="V5" t="n">
-        <v>1134.24202645431</v>
+        <v>2262.397026790871</v>
       </c>
       <c r="W5" t="n">
-        <v>1133.426975905747</v>
+        <v>2261.581976242308</v>
       </c>
       <c r="X5" t="n">
-        <v>1118.324916525462</v>
+        <v>2246.479916862023</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.0387928251154</v>
+        <v>1838.193793161676</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>674.533170634256</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>892.8865577355614</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>892.8865577355614</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>727.0085649370841</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>557.2505611878214</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>266.2978593068801</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>684.5077410748412</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2362.377960771851</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2116.498514350306</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>2116.498514350306</v>
       </c>
       <c r="V7" t="n">
-        <v>1014.952802018603</v>
+        <v>1829.543006220736</v>
       </c>
       <c r="W7" t="n">
-        <v>1014.952802018603</v>
+        <v>1557.516601807028</v>
       </c>
       <c r="X7" t="n">
-        <v>769.5610473520153</v>
+        <v>1312.12484714044</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.1413766661235</v>
+        <v>1084.705176454549</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1343.515716940192</v>
+        <v>1961.302779388836</v>
       </c>
       <c r="C8" t="n">
-        <v>914.93404267746</v>
+        <v>1927.200710612663</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>1491.290925787107</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1057.516180945403</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>629.6487513546103</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1477.116202953456</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1476.301152404893</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1461.199093024608</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y8" t="n">
-        <v>1456.953373364666</v>
+        <v>1983.561945833339</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>720.6730802565953</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>720.6730802565953</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>554.795087458118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>554.795087458118</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>378.0880334198743</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>212.4967584457019</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>341.7616130750586</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1238.091239336891</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1238.091239336891</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>966.0648349231828</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>720.6730802565953</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.6730802565953</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1732.690138994924</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1294.547666178347</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1294.547666178347</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>860.7729213366424</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>477.5354445883571</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>76.1376132116209</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.1376132116209</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>76.1376132116209</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>925.0107940069751</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1867.213757500784</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2809.416720994592</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3637.726595827988</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827988</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581045</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454084</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3327.5911307711</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2964.974180704927</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.11872611596</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2140.976262695271</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1732.690138994924</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>76.1376132116209</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N12" t="n">
-        <v>76.1376132116209</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O12" t="n">
-        <v>1018.340576705429</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="P12" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.1376132116209</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.1376132116209</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250083</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114416</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114416</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412412</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990868</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.217558403194</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.665599145141</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684047</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162092</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>76.13761321162092</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>378.51200804838</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542189</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035997</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869394</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827989</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581046</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.228786764882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.228786764882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3723.228786764882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3723.228786764882</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3318.373332175915</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2899.230868755226</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.230868755226</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861093</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.642193513063</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292246</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954085</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>919.6542082112317</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O15" t="n">
-        <v>919.6542082112317</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4549980366087</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>750.8932865198336</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>728.0961202829253</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>558.3381165336625</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162092</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162092</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.379401819793</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.499955398248</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2147.066954651353</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1860.111446521784</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1588.085042108075</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X16" t="n">
-        <v>1342.693287441488</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y16" t="n">
-        <v>1115.273616755596</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009658</v>
@@ -5501,61 +5503,61 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771608</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766308</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987182</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136698</v>
@@ -5583,34 +5585,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707797</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>210.9600532992111</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>448.0171411277256</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>271.3100870894817</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>105.7188121153094</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>105.7188121153094</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5741,61 +5743,61 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289577</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>936.6111322289577</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987182</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5822,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1300.985674363279</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
         <v>1765.500601749588</v>
@@ -5905,13 +5907,13 @@
         <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1011.560997133398</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C25" t="n">
-        <v>838.9992856166232</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D25" t="n">
-        <v>673.1212928181459</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1676.191041204865</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.799286538277</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203.379615852385</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2177.511286811513</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1890.555778681944</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.529374268236</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6540,25 +6542,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>693.7847748441449</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6652,19 +6654,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2055.662191942386</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1768.706683812817</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1496.680279399108</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.799286538277</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.379615852385</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6789,16 +6791,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>809.5937635959755</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,22 +6937,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>3417.209496257023</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -6968,16 +6970,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7017,25 +7019,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7125,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,13 +7174,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7205,19 +7207,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7263,16 +7265,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V40" t="n">
-        <v>2005.426305625833</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W40" t="n">
-        <v>1733.399901212125</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X40" t="n">
-        <v>1488.008146545537</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y40" t="n">
-        <v>1260.588475859645</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448087</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162087</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>378.5120080483791</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1320.714971542187</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1320.714971542187</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>1320.714971542187</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>3596.584817460867</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>3337.362514777884</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>3337.362514777884</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3337.362514777884</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3337.362514777884</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.493131408668</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>1622.20459659609</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.20459659609</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.6336502885522</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717771</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732998</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E43" t="n">
-        <v>418.435942224037</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360019</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2313.11602245071</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1874.973549634133</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1439.063764808578</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1005.289019966873</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162087</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>76.13761321162087</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>378.5120080483791</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542187</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3503.161559637919</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3140.544609571746</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3140.544609571746</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2721.402146151057</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2313.11602245071</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>261.7424914848164</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.8728193312368</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>772.3111078144617</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>606.4331150159844</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>436.6751112667217</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>259.9680572284778</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>94.37678225430551</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>94.37678225430551</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.917776692876</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U46" t="n">
-        <v>2168.484775945981</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V46" t="n">
-        <v>1881.529267816412</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W46" t="n">
-        <v>1609.502863402703</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X46" t="n">
-        <v>1364.111108736116</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.691438050224</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8143,10 +8145,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>310.9272166398487</v>
-      </c>
-      <c r="N4" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8222,19 +8224,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>503.4343826282369</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377808</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8462,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>857.4476573690446</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452613</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452613</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8775,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.7201651452611</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>182.1190498514393</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>305.428681653292</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452614</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452615</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>852.0369646460715</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9249,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426505</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9486,16 +9488,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,16 +9956,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>269.6622319264171</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="O33" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>980.0845558810993</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10665,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M36" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1015.482873487266</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>305.4286816532911</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452609</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,16 +11302,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
-        <v>305.4286816532911</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452609</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11388,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.18365331408195</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.412621479131467</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800143</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5921776627303</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.13444561995749</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.412621479131467</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>141.6500182959533</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>84.34995760698698</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>90.2200092229009</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>219.0118993322385</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>41.29624514453974</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>109.3985407791399</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.446659489829472</v>
       </c>
     </row>
     <row r="41">
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.67367016671713</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>187.3515686813697</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71657238081363</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>55.87832135360776</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>319489.0947480186</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>319489.0947480187</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>319489.0947480187</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>319489.0947480187</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
   </sheetData>
@@ -26317,28 +26319,28 @@
         <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="F2" t="n">
-        <v>425985.4596640252</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
         <v>526857.5841373523</v>
       </c>
       <c r="I2" t="n">
+        <v>526857.5841373521</v>
+      </c>
+      <c r="J2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="J2" t="n">
-        <v>526857.5841373521</v>
-      </c>
       <c r="K2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
         <v>526857.5841373521</v>
@@ -26350,10 +26352,10 @@
         <v>526857.5841373523</v>
       </c>
       <c r="O2" t="n">
-        <v>425985.459664025</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373523</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221041</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636903</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574196</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970939</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>651.952034992275</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="F4" t="n">
-        <v>651.9520349923389</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907825552</v>
+        <v>806.3323907825534</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825143</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782627</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>651.952034992386</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>651.952034992386</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083186</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083186</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165363.1378237162</v>
+        <v>165363.1378237163</v>
       </c>
       <c r="C6" t="n">
-        <v>307554.4384834263</v>
+        <v>275605.7743902958</v>
       </c>
       <c r="D6" t="n">
-        <v>307554.4384834262</v>
+        <v>336902.7935604174</v>
       </c>
       <c r="E6" t="n">
-        <v>209991.6266660966</v>
+        <v>265977.9039197273</v>
       </c>
       <c r="F6" t="n">
-        <v>367468.921588201</v>
+        <v>448333.0131407772</v>
       </c>
       <c r="G6" t="n">
-        <v>358833.2045344082</v>
+        <v>448333.0131407771</v>
       </c>
       <c r="H6" t="n">
         <v>448333.0131407772</v>
@@ -26543,25 +26545,25 @@
         <v>448333.013140777</v>
       </c>
       <c r="J6" t="n">
-        <v>337318.5477957868</v>
+        <v>337318.5477957869</v>
       </c>
       <c r="K6" t="n">
-        <v>448333.0131407769</v>
+        <v>395287.1585020046</v>
       </c>
       <c r="L6" t="n">
-        <v>448333.0131407769</v>
+        <v>438940.7114141546</v>
       </c>
       <c r="M6" t="n">
-        <v>316896.7659833575</v>
+        <v>296132.8422027894</v>
       </c>
       <c r="N6" t="n">
+        <v>448333.0131407772</v>
+      </c>
+      <c r="O6" t="n">
         <v>448333.0131407771</v>
       </c>
-      <c r="O6" t="n">
-        <v>367468.9215882007</v>
-      </c>
       <c r="P6" t="n">
-        <v>367468.9215882007</v>
+        <v>448333.0131407772</v>
       </c>
     </row>
   </sheetData>
@@ -26790,22 +26792,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452613</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452614</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452609</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452609</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.424307625157</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>527.424307625157</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>147.2153150401802</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>186.0210090167685</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>103.639929917987</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>78.11817674601862</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>268.8363640947698</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>254.5255975807804</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>63.40185516953171</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>41.9752570214865</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309.7332949198295</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>113.5502680755941</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>49.50894335394801</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28855,10 +28857,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-4.955553959435929e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.936877707947525e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34863,10 +34865,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>310.9272166398487</v>
-      </c>
-      <c r="N4" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34942,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>503.4343826282369</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377808</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>857.4476573690446</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452613</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452613</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.7201651452611</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>182.1190498514393</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,10 +35582,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616502</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>305.428681653292</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452614</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452615</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>852.0369646460715</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>315.3936483072348</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36047,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426505</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="O21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,7 +36284,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36612,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>269.6622319264171</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="O33" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>980.0845558810993</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="M36" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1015.482873487266</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>305.4286816532911</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452609</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
-        <v>305.4286816532911</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452609</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2974702.502977829</v>
+        <v>2974177.320608797</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916862</v>
+        <v>278692.0725916851</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>175.1171278661202</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>31.8455458389233</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>71.30005357987436</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>174.9113998125073</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>402.2420116363811</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>111.5381283283296</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>29.68613922828525</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1138,7 +1138,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>283.8335849873746</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1189,13 +1189,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>316.8654053225454</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>125.6544692828923</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884108</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932876</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948842</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062966</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800122</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556916</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655116</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430769</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701016069</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665291</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573291</v>
       </c>
       <c r="U13" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394256</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884108</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932876</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948842</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629686</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791312589</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800122</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556916</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655098</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430769</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244305</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307127</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573291</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>205.9320983586144</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.3792913045956</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884108</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932876</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948842</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629686</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791312589</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800122</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556916</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655116</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430769</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244305</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.8284742946066</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149832</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394256</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884108</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932876</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948842</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629686</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791312589</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800122</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556916</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655116</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633409</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.68042330889634</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244305</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>103.8284742946066</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149832</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394256</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244305</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.2036430816817</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149832</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573291</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394256</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551686</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.9855059742079</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="26">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>56.95997704284446</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>234.352425594886</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791334209</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561527</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022559</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3717,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.6988144892033</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112179</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.267152625425</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.3315093046215</v>
+        <v>1091.820030421016</v>
       </c>
       <c r="C2" t="n">
-        <v>925.2294405284488</v>
+        <v>663.238356158284</v>
       </c>
       <c r="D2" t="n">
-        <v>893.3600597432974</v>
+        <v>234.6566818955523</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4339,7 +4339,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
         <v>267.8706684926505</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1665.016212061303</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1405.79390937832</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1405.79390937832</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1404.978858829757</v>
+        <v>1133.426975905747</v>
       </c>
       <c r="X2" t="n">
-        <v>1389.876799449472</v>
+        <v>1118.324916525462</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.5906757491252</v>
+        <v>1114.079196865519</v>
       </c>
     </row>
     <row r="3">
@@ -4406,19 +4406,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>672.6790347687931</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1173232520181</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1173232520181</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>500.1173232520181</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>864.4976534877803</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>864.4976534877803</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.4976534877803</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1815.934626717172</v>
+        <v>978.4627999561585</v>
       </c>
       <c r="C5" t="n">
-        <v>1377.792153900596</v>
+        <v>944.3607311799858</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.922773115444</v>
+        <v>508.4509463544302</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>74.67620151272544</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.84917596233724</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233724</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233708</v>
+        <v>50.84917596233724</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="M5" t="n">
-        <v>674.533170634256</v>
+        <v>674.5331706342581</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717424</v>
+        <v>1298.633954679039</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717424</v>
+        <v>1922.73473872382</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1975.120543515268</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2521.619329473862</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473862</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473854</v>
+        <v>2437.967455657699</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473854</v>
+        <v>2437.967455657699</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.397026790871</v>
+        <v>2178.745152974716</v>
       </c>
       <c r="V5" t="n">
-        <v>2262.397026790871</v>
+        <v>1816.128202908542</v>
       </c>
       <c r="W5" t="n">
-        <v>2261.581976242308</v>
+        <v>1411.272748319576</v>
       </c>
       <c r="X5" t="n">
-        <v>2246.479916862023</v>
+        <v>1004.967686060605</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.193793161676</v>
+        <v>1000.721966400662</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326478</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947708</v>
+        <v>76.49605974993486</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947708</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947708</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947708</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947708</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947708</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="O6" t="n">
-        <v>674.533170634256</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>892.8865577355614</v>
+        <v>989.5883728917331</v>
       </c>
       <c r="C7" t="n">
-        <v>892.8865577355614</v>
+        <v>817.0266613749581</v>
       </c>
       <c r="D7" t="n">
-        <v>727.0085649370841</v>
+        <v>651.1486685764808</v>
       </c>
       <c r="E7" t="n">
-        <v>557.2505611878214</v>
+        <v>481.3906648272181</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>304.6836107889742</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947708</v>
+        <v>137.0120717541671</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068801</v>
+        <v>266.2978593068882</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748412</v>
+        <v>684.5077410748493</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255754</v>
+        <v>1143.991608255762</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413399</v>
+        <v>1586.250411413407</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.91966063918</v>
+        <v>2005.919660639188</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2353.42655460953</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473862</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473862</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.377960771851</v>
+        <v>2521.619329473862</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350306</v>
+        <v>2491.633330253372</v>
       </c>
       <c r="U7" t="n">
-        <v>2116.498514350306</v>
+        <v>2213.200329506477</v>
       </c>
       <c r="V7" t="n">
-        <v>1829.543006220736</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>1557.516601807028</v>
+        <v>1654.2184169632</v>
       </c>
       <c r="X7" t="n">
-        <v>1312.12484714044</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>1084.705176454549</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1961.302779388836</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>1927.200710612663</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>1491.290925787107</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>1057.516180945403</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>629.6487513546103</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4813,10 +4813,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.72477542213</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2002.909724873567</v>
+        <v>1424.436406756777</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.807665493282</v>
+        <v>1409.334347376492</v>
       </c>
       <c r="Y8" t="n">
-        <v>1983.561945833339</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
         <v>397.8892067392439</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4992,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651785</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835209</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009653</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167949</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771565</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766254</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766254</v>
       </c>
       <c r="L11" t="n">
-        <v>306.1208027766299</v>
+        <v>306.1208027766254</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987176</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423623</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993929</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827326</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.88794878592</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538977</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722814</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595852</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912869</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846695</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257729</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.48574183704</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136693</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620723</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5162,10 +5162,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626147</v>
       </c>
       <c r="Y12" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418354</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903963</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736213</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751441</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258816</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876379</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804049</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066036</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745648</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O13" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q13" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2117.975449367836</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C14" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766254</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766254</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766254</v>
       </c>
       <c r="M14" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987176</v>
       </c>
       <c r="N14" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423623</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993929</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827326</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.88794878592</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538977</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722814</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595852</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912869</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620723</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5399,10 +5399,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626147</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418354</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562597</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577825</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>533.21911850852</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702763</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961041</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961041</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066052</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N16" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.028783187778</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.073275058209</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.993304878938</v>
+        <v>1706.0468706445</v>
       </c>
       <c r="X16" t="n">
-        <v>1481.601550212351</v>
+        <v>1460.655115977913</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292021</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771587</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766263</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766263</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>306.1208027766263</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987177</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423624</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.07928799393</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827327</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785921</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538978</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722815</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595853</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="18">
@@ -5573,16 +5573,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.634124109939</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>885.072412593164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946868</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>549.4364160454243</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>372.7293620071806</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>207.1380870330084</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5673,52 +5673,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354696</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066052</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N19" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724683</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595113</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181405</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514817</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828926</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766245</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766245</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987175</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423622</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993929</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827325</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785919</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538976</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722813</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595851</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912868</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846695</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257729</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.48574183704</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620723</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5873,10 +5873,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626147</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418354</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.634124109939</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>885.072412593164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>719.1944197946868</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>549.4364160454243</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>372.7293620071806</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>207.1380870330084</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066052</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745664</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N22" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2281.246080724683</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.844126920461</v>
+        <v>1994.290572595113</v>
       </c>
       <c r="W22" t="n">
-        <v>1754.817722506753</v>
+        <v>1722.264168181405</v>
       </c>
       <c r="X22" t="n">
-        <v>1509.425967840165</v>
+        <v>1476.872413514817</v>
       </c>
       <c r="Y22" t="n">
-        <v>1282.006297154273</v>
+        <v>1249.452742828926</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477102</v>
       </c>
       <c r="C25" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309353</v>
       </c>
       <c r="D25" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324581</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831955</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6147,52 +6147,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354696</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066053</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745666</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176949</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.94881300851</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.966900465232</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066697</v>
       </c>
     </row>
     <row r="26">
@@ -6226,13 +6226,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
         <v>1463.16863798718</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>3879.214741978675</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>3879.214741978675</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>3879.214741978675</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>5113.042013538981</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>5113.042013538981</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>754.2193473420839</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6417,19 +6417,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K30" t="n">
-        <v>693.7847748441449</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L30" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M30" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>832.0502353276421</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2055.662191942386</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1768.706683812817</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1496.680279399108</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.288524732521</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1023.868854046629</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436417</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>1224.761663117513</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.761663117513</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.761663117513</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.761663117513</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7171,37 +7171,37 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7244,37 +7244,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.088111831086</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2026.844126920461</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1754.817722506753</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1509.425967840165</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,16 +7411,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7438,16 +7438,16 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766308</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7718,28 +7718,28 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O45" t="n">
         <v>287.8657185439749</v>
@@ -7800,16 +7800,16 @@
         <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7830,25 +7830,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2538.261260176947</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2259.828259430053</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.872751300483</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.846346886775</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.454592220187</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
         <v>1284.477670376323</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335029</v>
+        <v>630.4048323684655</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>52.91495433479577</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>503.4343826282369</v>
+        <v>577.1153547606245</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377808</v>
+        <v>130.5917045987082</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.919154046309</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.919154046309</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8941,7 +8941,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463098</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463081</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K30" t="n">
-        <v>269.6622319264171</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
-        <v>433.7499898166689</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142698</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665291</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.2036430816817</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149832</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>69.71657238081124</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192252</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307127</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>21.2036430816817</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573291</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.2200092229009</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>34.67467827192249</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307127</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>21.2036430816817</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573291</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665291</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307127</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>160.7958207444046</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.1599680048249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>113.8761173587629</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>41.29624514453974</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.446659489829472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.87832135360776</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>536147.3198904083</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="F2" t="n">
+        <v>526857.5841373524</v>
+      </c>
+      <c r="G2" t="n">
         <v>526857.5841373523</v>
-      </c>
-      <c r="G2" t="n">
-        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
         <v>526857.5841373523</v>
       </c>
       <c r="I2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="J2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="K2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
+        <v>526857.5841373523</v>
+      </c>
+      <c r="N2" t="n">
         <v>526857.5841373522</v>
-      </c>
-      <c r="N2" t="n">
-        <v>526857.5841373523</v>
       </c>
       <c r="O2" t="n">
         <v>526857.5841373522</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501615</v>
+        <v>66587.76789501683</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998278</v>
+        <v>11527.59554998212</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210496</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.627806108852382e-10</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877251</v>
+        <v>53045.85463877305</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622321</v>
+        <v>9392.301726621788</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>121997.5637970939</v>
+        <v>121997.5637970935</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907828237</v>
       </c>
       <c r="F4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907828238</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907825534</v>
+        <v>806.3323907827421</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907828237</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826477</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26450,16 +26450,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.332390782627</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825121</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.21380800271</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579246</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579246</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579245</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165363.1378237163</v>
+        <v>165363.1378237162</v>
       </c>
       <c r="C6" t="n">
-        <v>275605.7743902958</v>
+        <v>275605.7743902953</v>
       </c>
       <c r="D6" t="n">
-        <v>336902.7935604174</v>
+        <v>336902.7935604178</v>
       </c>
       <c r="E6" t="n">
-        <v>265977.9039197273</v>
+        <v>265954.6795803446</v>
       </c>
       <c r="F6" t="n">
-        <v>448333.0131407772</v>
+        <v>448309.7888013945</v>
       </c>
       <c r="G6" t="n">
-        <v>448333.0131407771</v>
+        <v>448309.7888013944</v>
       </c>
       <c r="H6" t="n">
-        <v>448333.0131407772</v>
+        <v>448309.7888013945</v>
       </c>
       <c r="I6" t="n">
-        <v>448333.013140777</v>
+        <v>448309.788801394</v>
       </c>
       <c r="J6" t="n">
-        <v>337318.5477957869</v>
+        <v>337295.3234564043</v>
       </c>
       <c r="K6" t="n">
-        <v>395287.1585020046</v>
+        <v>395263.9341626213</v>
       </c>
       <c r="L6" t="n">
-        <v>438940.7114141546</v>
+        <v>438917.4870747726</v>
       </c>
       <c r="M6" t="n">
-        <v>296132.8422027894</v>
+        <v>296109.617863407</v>
       </c>
       <c r="N6" t="n">
-        <v>448333.0131407772</v>
+        <v>448309.7888013943</v>
       </c>
       <c r="O6" t="n">
-        <v>448333.0131407771</v>
+        <v>448309.7888013943</v>
       </c>
       <c r="P6" t="n">
-        <v>448333.0131407772</v>
+        <v>448309.7888013946</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26792,22 +26792,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384744</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384744</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384744</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384744</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483613</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939132</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768872</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483613</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939132</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483613</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939132</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768872</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
+        <v>254.3198695271676</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>186.0210090167685</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>103.639929917987</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>254.5255975807804</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.70902715010135</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>63.40185516953171</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>213.734512729044</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>113.5502680755941</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>83.94149472053164</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28092,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.557644358057307e-12</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.939537063669349e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,16 +28851,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>2.217012171987248e-12</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.387375541589505e-13</v>
       </c>
     </row>
     <row r="26">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.699385385986208e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -34707,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201043</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335029</v>
+        <v>630.4048323684655</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>52.91495433479577</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>503.4343826282369</v>
+        <v>577.1153547606245</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377808</v>
+        <v>130.5917045987082</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35181,13 +35181,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.919154046309</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908081</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.533792496095</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.919154046309</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35661,7 +35661,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908081</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463098</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908082</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463081</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908081</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908081</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080417</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K30" t="n">
-        <v>269.6622319264171</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
-        <v>433.7499898166689</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463143</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
